--- a/medicine/Enfance/Langelot_contre_la_marée_noire/Langelot_contre_la_marée_noire.xlsx
+++ b/medicine/Enfance/Langelot_contre_la_marée_noire/Langelot_contre_la_marée_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Langelot_contre_la_mar%C3%A9e_noire</t>
+          <t>Langelot_contre_la_marée_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot contre la marée noire est le trente-cinquième roman de la série Langelot, écrite par le Lieutenant X (pseudonyme de Vladimir Volkoff). Il est paru pour la première fois en 1981, dans la Bibliothèque verte.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Langelot_contre_la_mar%C3%A9e_noire</t>
+          <t>Langelot_contre_la_marée_noire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Langelot : orphelin, sous-lieutenant et agent du Service National d'Information Fonctionnelle, blond, 1,68 m, mince, « traits menus mais durs », alias le berger Angel Medina, originaire d'Avila en Castille, mousse sur l'Oléo III.
 Maria Carolina Alfuentes de Villafranca y Alrededor (alias Carlito Sanchez, mousse sur l'Oléo III) : armateur, propriétaire d'un superpétrolier.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Langelot_contre_la_mar%C3%A9e_noire</t>
+          <t>Langelot_contre_la_marée_noire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les superpétroliers Oleo I et Oleo II ayant coulé, le SNIF envoie Langelot enquêter en Espagne dans le cadre de l'opération « Vinaigre » : il se fait embaucher à bord de l’Oleo III pour découvrir si les deux précédents sinistres étaient accidentels ou criminels. Langelot embarque sur le navire, après avoir écarté un rival, Calaguer. Le soir même, il est victime d'une tentative de meurtre. Il est sauvé par la propriétaire du navire, la jeune Maria Carolina Alfuentes de Villafranca y Alrededor, 18 ans, qui le soigne chez elle. À la suite d'une conversation avec Langelot, Maria Carolina décide de se faire engager elle aussi à bord de son propre navire. Elle se fait passer pour un jeune mousse, Carlito Sanchez tandis que Langelot se fait appeler Angel Medina, berger de Castille et Léon.
 Les deux jeunes gens sont donc engagés à bord du super-pétrolier. Ils font connaissance avec le commandant Robarra (une brute, alcoolisée en permanence au rhum), avec le journaliste Miguel Ramirez, ainsi qu'avec l'équipage : Nasri, le second, le cuisinier Pepe Volapié, Wallie, Li et Ali, les trois mécaniciens, Eddie, chef des philippins embarqués. L'Oléo III, navire de 300.000 tonnes, est immatriculé au Liberia ; il est en piteux état, mal entretenu, son équipage est médiocre et il est mal commandé.
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Langelot_contre_la_mar%C3%A9e_noire</t>
+          <t>Langelot_contre_la_marée_noire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1981 - Hachette, Bibliothèque verte (français, version originale), illustré par Robert Bressy.</t>
         </is>
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Langelot_contre_la_mar%C3%A9e_noire</t>
+          <t>Langelot_contre_la_marée_noire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,7 +644,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les dégâts épouvantables des marées noires et les carences d'entretien des super-pétroliers ont fortement frappé l'opinion. En 1978, le naufrage de l'Amoco Cadiz, au large des côtes bretonnes, produit un désastre écologique de grande ampleur. À partir de juin 1980, la société Amoco est poursuivie en justice par un collectif de collectivités locales et d'associations bretonnes. Le roman paraît en 1981.
 À plusieurs reprises, le roman fait la critique du pavillon de complaisance, ici, nominativement, celui du Libéria. La logique financière, consistant à réduire les coûts aux dépens de la sécurité, est également pointée par l'auteur (pages 48, 49 et 50, édition Hachette).
@@ -642,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Langelot_contre_la_mar%C3%A9e_noire</t>
+          <t>Langelot_contre_la_marée_noire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,11 +682,53 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Super-pétroliers
+          <t>Super-pétroliers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Un pétrolier en train de charger sa cargaison.
 			Des machines dans le navire.
 			Autres machines.
-Marées noires
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Langelot_contre_la_marée_noire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Langelot_contre_la_mar%C3%A9e_noire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Photos</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Marées noires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Un supertanker en train de couler.
 			Une marée noire en mer.
 			Dégâts d'une marée noire sur le rivage.
